--- a/output/ATOMUSDT_1_2020_12_2025_strategy.xlsx
+++ b/output/ATOMUSDT_1_2020_12_2025_strategy.xlsx
@@ -698,27 +698,31 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>1058.766859344894</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.87668593448941</v>
       </c>
       <c r="G3" t="n">
         <v>-42.78635966190637</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.7225433526011671</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -726,30 +730,42 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.87668593448941</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.87668593448941</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.87668593448941</v>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>58.7668593448941</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.293995317062843</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>138.5842331598913</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.352624978469176</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>27.46438274524421</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1066,10 +1082,10 @@
         <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>1045.704960567291</v>
+        <v>1000.216259621427</v>
       </c>
       <c r="F7" t="n">
-        <v>4.570496056729143</v>
+        <v>0.02162596214265022</v>
       </c>
       <c r="G7" t="n">
         <v>44.78361669242634</v>
@@ -1081,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.708077468115261</v>
+        <v>8.580995582260954</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.5416666666666666</v>
+        <v>14.54166666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1099,43 +1115,43 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.627101879327428</v>
+        <v>6.627101879327412</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.9287833827893</v>
+        <v>-4.350051177072669</v>
       </c>
       <c r="S7" t="n">
-        <v>6.627101879327428</v>
+        <v>6.627101879327412</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.9287833827893</v>
+        <v>-3.139417279930987</v>
       </c>
       <c r="U7" s="3" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.4375</v>
       </c>
       <c r="W7" t="n">
-        <v>3.369626417104209</v>
+        <v>1.003490912233324</v>
       </c>
       <c r="X7" t="n">
-        <v>22.85248028364572</v>
+        <v>0.07208654047549601</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.820778609474249</v>
+        <v>0.1465999388728413</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.44793750876597</v>
+        <v>0.03065704315034596</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.549487733161849</v>
+        <v>1.017424367455904</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.758677774936439</v>
+        <v>0.2195154584790728</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1772,10 +1788,10 @@
         <v>1000</v>
       </c>
       <c r="E15" t="n">
-        <v>965.4005400855771</v>
+        <v>1008.788649997147</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.459945991442294</v>
+        <v>0.8788649997147331</v>
       </c>
       <c r="G15" t="n">
         <v>9.21382619125497</v>
@@ -1787,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.065351652860291</v>
+        <v>4.634220633480399</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>19.25</v>
+        <v>19.45833333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1805,39 +1821,43 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.467343902313905</v>
+        <v>5.78098943857699</v>
       </c>
       <c r="R15" t="n">
-        <v>-2.022275830210956</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
+        <v>-2.665855759971634</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.78098943857699</v>
+      </c>
       <c r="T15" t="n">
-        <v>-1.744809866262431</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
+        <v>-2.344065795091296</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>0.4583333333333333</v>
+      </c>
       <c r="V15" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.179282474501751</v>
       </c>
       <c r="X15" t="n">
-        <v>-17.29972995721147</v>
+        <v>2.929549999049108</v>
       </c>
       <c r="Y15" t="n">
-        <v>-4.52159355942883</v>
+        <v>0.644070968448158</v>
       </c>
       <c r="Z15" t="n">
-        <v>-8.561911456818802</v>
+        <v>2.420488791854852</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2968238412530337</v>
+        <v>1.098423900983246</v>
       </c>
       <c r="AB15" t="n">
-        <v>-4.960026319251656</v>
+        <v>0.9502148939274079</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3010,10 +3030,10 @@
         <v>1000</v>
       </c>
       <c r="E29" t="n">
-        <v>1064.547547370285</v>
+        <v>1060.696956329951</v>
       </c>
       <c r="F29" t="n">
-        <v>6.454754737028509</v>
+        <v>6.069695632995149</v>
       </c>
       <c r="G29" t="n">
         <v>-41.81514476614709</v>
@@ -3025,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.672280460560224</v>
+        <v>2.67228046056024</v>
       </c>
       <c r="K29" s="3" t="n">
         <v>0.2083333333333333</v>
@@ -3046,17 +3066,17 @@
         <v>100</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.454754737028508</v>
+        <v>6.069695632995149</v>
       </c>
       <c r="R29" t="n">
-        <v>6.454754737028508</v>
+        <v>6.069695632995149</v>
       </c>
       <c r="S29" t="n">
-        <v>6.454754737028508</v>
+        <v>6.069695632995149</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" s="3" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
@@ -3065,19 +3085,19 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>64.54754737028509</v>
+        <v>60.69695632995149</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.122247906577837</v>
+        <v>4.735555894840531</v>
       </c>
       <c r="Z29" t="n">
-        <v>42.59311979890322</v>
+        <v>39.14676167167573</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.822436826434594</v>
+        <v>2.400304462492516</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.07828738971862</v>
+        <v>9.713215858027539</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -3278,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="E32" t="n">
-        <v>974.3502343417128</v>
+        <v>929.3721773619021</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.564976565828715</v>
+        <v>-7.062782263809789</v>
       </c>
       <c r="G32" t="n">
         <v>12.79908849221403</v>
@@ -3293,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.96438770367883</v>
+        <v>8.39759363898942</v>
       </c>
       <c r="K32" s="3" t="n">
         <v>12.16666666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3317,33 +3337,33 @@
         <v>-2.564976565828715</v>
       </c>
       <c r="R32" t="n">
-        <v>-2.564976565828715</v>
+        <v>-4.616210413311867</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>-2.564976565828715</v>
+        <v>-3.590593489570292</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" s="3" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-25.64976565828715</v>
+        <v>-35.31391131904894</v>
       </c>
       <c r="Y32" t="n">
-        <v>-2.733078976741628</v>
+        <v>-5.589443483892764</v>
       </c>
       <c r="Z32" t="n">
-        <v>-6.828948264592572</v>
+        <v>-7.017640018397247</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.3630471921294434</v>
+        <v>0.1672676361663982</v>
       </c>
       <c r="AB32" t="n">
-        <v>-2.839777342137059</v>
+        <v>-5.692391245485999</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -5358,10 +5378,10 @@
         <v>1000</v>
       </c>
       <c r="E55" t="n">
-        <v>1081.391478029294</v>
+        <v>1078.161301028875</v>
       </c>
       <c r="F55" t="n">
-        <v>8.139147802929438</v>
+        <v>7.816130102887496</v>
       </c>
       <c r="G55" t="n">
         <v>-10.26061057334335</v>
@@ -5373,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.214227443302312</v>
+        <v>3.21422744330232</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>1.666666666666667</v>
@@ -5394,17 +5414,17 @@
         <v>100</v>
       </c>
       <c r="Q55" t="n">
-        <v>8.139147802929438</v>
+        <v>7.816130102887496</v>
       </c>
       <c r="R55" t="n">
-        <v>8.139147802929438</v>
+        <v>7.816130102887496</v>
       </c>
       <c r="S55" t="n">
-        <v>8.139147802929438</v>
+        <v>7.816130102887496</v>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" s="3" t="n">
-        <v>5.416666666666667</v>
+        <v>5.791666666666667</v>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
@@ -5413,19 +5433,19 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>81.39147802929438</v>
+        <v>78.16130102887496</v>
       </c>
       <c r="Y55" t="n">
-        <v>5.604236815546504</v>
+        <v>5.196604112127849</v>
       </c>
       <c r="Z55" t="n">
-        <v>49.39077154614422</v>
+        <v>46.51733164063194</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.438075884844126</v>
+        <v>1.386814097861395</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.444428371252759</v>
+        <v>8.503296943531614</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -5808,27 +5828,31 @@
         <v>1000</v>
       </c>
       <c r="E60" t="n">
-        <v>1000</v>
+        <v>1059.24134804292</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5.924134804291975</v>
       </c>
       <c r="G60" t="n">
         <v>-26.44355408908769</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.785996199386062</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>1.208333333333333</v>
+      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5836,30 +5860,42 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5.924134804291976</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.924134804291976</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.924134804291976</v>
+      </c>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="X60" t="n">
+        <v>59.24134804291975</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.55590707651477</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>26.73683591017126</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.369430261896956</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>5.272218081607305</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -5892,10 +5928,10 @@
         <v>1000</v>
       </c>
       <c r="E61" t="n">
-        <v>960.3679904149044</v>
+        <v>1003.926451877778</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.96320095850956</v>
+        <v>0.3926451877778277</v>
       </c>
       <c r="G61" t="n">
         <v>-0.7803790412483136</v>
@@ -5913,10 +5949,10 @@
         <v>5.875</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -5925,39 +5961,43 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q61" t="n">
-        <v>-1.945024915608428</v>
+        <v>4.535601133900294</v>
       </c>
       <c r="R61" t="n">
         <v>-2.058208715227531</v>
       </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>4.535601133900294</v>
+      </c>
       <c r="T61" t="n">
         <v>-2.00161681541798</v>
       </c>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" s="3" t="n">
+        <v>0.25</v>
+      </c>
       <c r="V61" s="3" t="n">
         <v>0.6875</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.09907274243431</v>
       </c>
       <c r="X61" t="n">
-        <v>-19.8160047925478</v>
+        <v>1.308817292592757</v>
       </c>
       <c r="Y61" t="n">
-        <v>-3.400626766314115</v>
+        <v>0.3577736540779843</v>
       </c>
       <c r="Z61" t="n">
-        <v>-7.856143803335607</v>
+        <v>0.9868939558785021</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.6004277992117052</v>
+        <v>1.046693437620195</v>
       </c>
       <c r="AB61" t="n">
-        <v>-4.122014690335777</v>
+        <v>0.5082779960816498</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
